--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl3-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl3-Ccr5.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.143010666666667</v>
+        <v>0.4460406666666667</v>
       </c>
       <c r="H2">
-        <v>3.429032</v>
+        <v>1.338122</v>
       </c>
       <c r="I2">
-        <v>0.003608506296604248</v>
+        <v>0.001628842357811546</v>
       </c>
       <c r="J2">
-        <v>0.003608506296604249</v>
+        <v>0.001628842357811545</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N2">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O2">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P2">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q2">
-        <v>0.1380112989324444</v>
+        <v>0.1084128602773334</v>
       </c>
       <c r="R2">
-        <v>1.242101690392</v>
+        <v>0.9757157424960001</v>
       </c>
       <c r="S2">
-        <v>3.927309370649714E-06</v>
+        <v>3.582835022749074E-06</v>
       </c>
       <c r="T2">
-        <v>3.927309370649715E-06</v>
+        <v>3.582835022749074E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.143010666666667</v>
+        <v>0.4460406666666667</v>
       </c>
       <c r="H3">
-        <v>3.429032</v>
+        <v>1.338122</v>
       </c>
       <c r="I3">
-        <v>0.003608506296604248</v>
+        <v>0.001628842357811546</v>
       </c>
       <c r="J3">
-        <v>0.003608506296604249</v>
+        <v>0.001628842357811545</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N3">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O3">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P3">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q3">
-        <v>55.84786122169334</v>
+        <v>31.64771378288667</v>
       </c>
       <c r="R3">
-        <v>502.63075099524</v>
+        <v>284.82942404598</v>
       </c>
       <c r="S3">
-        <v>0.001589230957199109</v>
+        <v>0.001045895634901646</v>
       </c>
       <c r="T3">
-        <v>0.001589230957199109</v>
+        <v>0.001045895634901645</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.143010666666667</v>
+        <v>0.4460406666666667</v>
       </c>
       <c r="H4">
-        <v>3.429032</v>
+        <v>1.338122</v>
       </c>
       <c r="I4">
-        <v>0.003608506296604248</v>
+        <v>0.001628842357811546</v>
       </c>
       <c r="J4">
-        <v>0.003608506296604249</v>
+        <v>0.001628842357811545</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N4">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O4">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P4">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q4">
-        <v>0.06043478398222222</v>
+        <v>0.02138408164133334</v>
       </c>
       <c r="R4">
-        <v>0.54391305584</v>
+        <v>0.192456734772</v>
       </c>
       <c r="S4">
-        <v>1.71975842037942E-06</v>
+        <v>7.067024745763779E-07</v>
       </c>
       <c r="T4">
-        <v>1.719758420379421E-06</v>
+        <v>7.067024745763778E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.143010666666667</v>
+        <v>0.4460406666666667</v>
       </c>
       <c r="H5">
-        <v>3.429032</v>
+        <v>1.338122</v>
       </c>
       <c r="I5">
-        <v>0.003608506296604248</v>
+        <v>0.001628842357811546</v>
       </c>
       <c r="J5">
-        <v>0.003608506296604249</v>
+        <v>0.001628842357811545</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N5">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O5">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P5">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q5">
-        <v>70.76179315269511</v>
+        <v>17.50956440703578</v>
       </c>
       <c r="R5">
-        <v>636.856138374256</v>
+        <v>157.586079663322</v>
       </c>
       <c r="S5">
-        <v>0.00201362827161411</v>
+        <v>0.0005786571854125744</v>
       </c>
       <c r="T5">
-        <v>0.00201362827161411</v>
+        <v>0.0005786571854125744</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>144.3442863333333</v>
+        <v>145.8660203333333</v>
       </c>
       <c r="H6">
-        <v>433.032859</v>
+        <v>437.598061</v>
       </c>
       <c r="I6">
-        <v>0.4556976424652904</v>
+        <v>0.5326706066061244</v>
       </c>
       <c r="J6">
-        <v>0.4556976424652905</v>
+        <v>0.5326706066061244</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N6">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O6">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P6">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q6">
-        <v>17.42865839426989</v>
+        <v>35.45361143813867</v>
       </c>
       <c r="R6">
-        <v>156.857925548429</v>
+        <v>319.082502943248</v>
       </c>
       <c r="S6">
-        <v>0.000495957461158116</v>
+        <v>0.001171673179902793</v>
       </c>
       <c r="T6">
-        <v>0.000495957461158116</v>
+        <v>0.001171673179902793</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>144.3442863333333</v>
+        <v>145.8660203333333</v>
       </c>
       <c r="H7">
-        <v>433.032859</v>
+        <v>437.598061</v>
       </c>
       <c r="I7">
-        <v>0.4556976424652904</v>
+        <v>0.5326706066061244</v>
       </c>
       <c r="J7">
-        <v>0.4556976424652905</v>
+        <v>0.5326706066061244</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N7">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O7">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P7">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q7">
-        <v>7052.707298696863</v>
+        <v>10349.56318368144</v>
       </c>
       <c r="R7">
-        <v>63474.36568827176</v>
+        <v>93146.06865313298</v>
       </c>
       <c r="S7">
-        <v>0.2006948972792429</v>
+        <v>0.3420330148083089</v>
       </c>
       <c r="T7">
-        <v>0.2006948972792429</v>
+        <v>0.3420330148083089</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>144.3442863333333</v>
+        <v>145.8660203333333</v>
       </c>
       <c r="H8">
-        <v>433.032859</v>
+        <v>437.598061</v>
       </c>
       <c r="I8">
-        <v>0.4556976424652904</v>
+        <v>0.5326706066061244</v>
       </c>
       <c r="J8">
-        <v>0.4556976424652905</v>
+        <v>0.5326706066061244</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N8">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O8">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P8">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q8">
-        <v>7.631963566064445</v>
+        <v>6.993108746820667</v>
       </c>
       <c r="R8">
-        <v>68.68767209458001</v>
+        <v>62.937978721386</v>
       </c>
       <c r="S8">
-        <v>0.0002171784648163751</v>
+        <v>0.0002311086975466547</v>
       </c>
       <c r="T8">
-        <v>0.0002171784648163751</v>
+        <v>0.0002311086975466547</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>144.3442863333333</v>
+        <v>145.8660203333333</v>
       </c>
       <c r="H9">
-        <v>433.032859</v>
+        <v>437.598061</v>
       </c>
       <c r="I9">
-        <v>0.4556976424652904</v>
+        <v>0.5326706066061244</v>
       </c>
       <c r="J9">
-        <v>0.4556976424652905</v>
+        <v>0.5326706066061244</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N9">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O9">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P9">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q9">
-        <v>8936.10254931368</v>
+        <v>5726.04847201785</v>
       </c>
       <c r="R9">
-        <v>80424.92294382313</v>
+        <v>51534.43624816066</v>
       </c>
       <c r="S9">
-        <v>0.254289609260073</v>
+        <v>0.189234809920366</v>
       </c>
       <c r="T9">
-        <v>0.254289609260073</v>
+        <v>0.189234809920366</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2668276666666667</v>
+        <v>0.150912</v>
       </c>
       <c r="H10">
-        <v>0.8004830000000001</v>
+        <v>0.452736</v>
       </c>
       <c r="I10">
-        <v>0.0008423799911533806</v>
+        <v>0.0005510974139175409</v>
       </c>
       <c r="J10">
-        <v>0.0008423799911533806</v>
+        <v>0.0005510974139175409</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N10">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O10">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P10">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q10">
-        <v>0.03221775084144445</v>
+        <v>0.036680067072</v>
       </c>
       <c r="R10">
-        <v>0.289959757573</v>
+        <v>0.330120603648</v>
       </c>
       <c r="S10">
-        <v>9.168022890850235E-07</v>
+        <v>1.212205162802289E-06</v>
       </c>
       <c r="T10">
-        <v>9.168022890850235E-07</v>
+        <v>1.212205162802289E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.2668276666666667</v>
+        <v>0.150912</v>
       </c>
       <c r="H11">
-        <v>0.8004830000000001</v>
+        <v>0.452736</v>
       </c>
       <c r="I11">
-        <v>0.0008423799911533806</v>
+        <v>0.0005510974139175409</v>
       </c>
       <c r="J11">
-        <v>0.0008423799911533806</v>
+        <v>0.0005510974139175409</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N11">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O11">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P11">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q11">
-        <v>13.03728384404834</v>
+        <v>10.70758820736</v>
       </c>
       <c r="R11">
-        <v>117.335554596435</v>
+        <v>96.36829386623999</v>
       </c>
       <c r="S11">
-        <v>0.0003709946026492651</v>
+        <v>0.0003538650483011499</v>
       </c>
       <c r="T11">
-        <v>0.0003709946026492651</v>
+        <v>0.0003538650483011499</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2668276666666667</v>
+        <v>0.150912</v>
       </c>
       <c r="H12">
-        <v>0.8004830000000001</v>
+        <v>0.452736</v>
       </c>
       <c r="I12">
-        <v>0.0008423799911533806</v>
+        <v>0.0005510974139175409</v>
       </c>
       <c r="J12">
-        <v>0.0008423799911533806</v>
+        <v>0.0005510974139175409</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1175,28 +1175,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N12">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O12">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P12">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q12">
-        <v>0.01410806816222222</v>
+        <v>0.007235023104000001</v>
       </c>
       <c r="R12">
-        <v>0.12697261346</v>
+        <v>0.06511520793599999</v>
       </c>
       <c r="S12">
-        <v>4.014653055499569E-07</v>
+        <v>2.391034984327371E-07</v>
       </c>
       <c r="T12">
-        <v>4.014653055499569E-07</v>
+        <v>2.391034984327371E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2668276666666667</v>
+        <v>0.150912</v>
       </c>
       <c r="H13">
-        <v>0.8004830000000001</v>
+        <v>0.452736</v>
       </c>
       <c r="I13">
-        <v>0.0008423799911533806</v>
+        <v>0.0005510974139175409</v>
       </c>
       <c r="J13">
-        <v>0.0008423799911533806</v>
+        <v>0.0005510974139175409</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N13">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O13">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P13">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q13">
-        <v>16.51883460645711</v>
+        <v>5.924131096704</v>
       </c>
       <c r="R13">
-        <v>148.669511458114</v>
+        <v>53.31717987033599</v>
       </c>
       <c r="S13">
-        <v>0.0004700671209094806</v>
+        <v>0.000195781056955156</v>
       </c>
       <c r="T13">
-        <v>0.0004700671209094805</v>
+        <v>0.000195781056955156</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>171.0003916666667</v>
+        <v>127.376091</v>
       </c>
       <c r="H14">
-        <v>513.001175</v>
+        <v>382.128273</v>
       </c>
       <c r="I14">
-        <v>0.5398514712469519</v>
+        <v>0.4651494536221465</v>
       </c>
       <c r="J14">
-        <v>0.5398514712469519</v>
+        <v>0.4651494536221465</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N14">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O14">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P14">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q14">
-        <v>20.64721429126944</v>
+        <v>30.95952317409601</v>
       </c>
       <c r="R14">
-        <v>185.824928621425</v>
+        <v>278.635708566864</v>
       </c>
       <c r="S14">
-        <v>0.0005875460834812315</v>
+        <v>0.00102315226839333</v>
       </c>
       <c r="T14">
-        <v>0.0005875460834812315</v>
+        <v>0.00102315226839333</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>171.0003916666667</v>
+        <v>127.376091</v>
       </c>
       <c r="H15">
-        <v>513.001175</v>
+        <v>382.128273</v>
       </c>
       <c r="I15">
-        <v>0.5398514712469519</v>
+        <v>0.4651494536221465</v>
       </c>
       <c r="J15">
-        <v>0.5398514712469519</v>
+        <v>0.4651494536221465</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N15">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O15">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P15">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q15">
-        <v>8355.13300195671</v>
+        <v>9037.655917960232</v>
       </c>
       <c r="R15">
-        <v>75196.19701761038</v>
+        <v>81338.90326164209</v>
       </c>
       <c r="S15">
-        <v>0.2377572878846035</v>
+        <v>0.2986770210064586</v>
       </c>
       <c r="T15">
-        <v>0.2377572878846035</v>
+        <v>0.2986770210064585</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>171.0003916666667</v>
+        <v>127.376091</v>
       </c>
       <c r="H16">
-        <v>513.001175</v>
+        <v>382.128273</v>
       </c>
       <c r="I16">
-        <v>0.5398514712469519</v>
+        <v>0.4651494536221465</v>
       </c>
       <c r="J16">
-        <v>0.5398514712469519</v>
+        <v>0.4651494536221465</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1423,28 +1423,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N16">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O16">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P16">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q16">
-        <v>9.041360708722223</v>
+        <v>6.106664554722001</v>
       </c>
       <c r="R16">
-        <v>81.37224637850001</v>
+        <v>54.95998099249801</v>
       </c>
       <c r="S16">
-        <v>0.0002572848810891198</v>
+        <v>0.0002018134341522654</v>
       </c>
       <c r="T16">
-        <v>0.0002572848810891198</v>
+        <v>0.0002018134341522654</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>171.0003916666667</v>
+        <v>127.376091</v>
       </c>
       <c r="H17">
-        <v>513.001175</v>
+        <v>382.128273</v>
       </c>
       <c r="I17">
-        <v>0.5398514712469519</v>
+        <v>0.4651494536221465</v>
       </c>
       <c r="J17">
-        <v>0.5398514712469519</v>
+        <v>0.4651494536221465</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N17">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O17">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P17">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q17">
-        <v>10586.33545339896</v>
+        <v>5000.216428578898</v>
       </c>
       <c r="R17">
-        <v>95277.01908059065</v>
+        <v>45001.94785721008</v>
       </c>
       <c r="S17">
-        <v>0.3012493523977781</v>
+        <v>0.1652474669131423</v>
       </c>
       <c r="T17">
-        <v>0.3012493523977779</v>
+        <v>0.1652474669131423</v>
       </c>
     </row>
   </sheetData>
